--- a/dubboi使用文档.xlsx
+++ b/dubboi使用文档.xlsx
@@ -93,10 +93,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4.loadbalance，选填，服务均衡负载方式，该配置会覆盖dubboi.properties中的配置，可选值：random,roundrobin,leastactive，分别表示：随机，轮循，最少活跃调用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> dubboi.accepts：选填， 服务端最大连接数，对整个应用程序而言，不需要重试请设为0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -186,6 +182,10 @@
   </si>
   <si>
     <t>添加引用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.loadbalance，选填，服务均衡负载方式，该配置会覆盖dubboi.properties中的配置，可选值：random,roundrobin,leastactive,consistenthash，分别表示：随机，轮循，最少活跃调用，一致性哈希</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -778,7 +778,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CAEACE"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1118,7 +1118,7 @@
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:1">
@@ -1143,7 +1143,7 @@
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="18.75">
@@ -1168,32 +1168,32 @@
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1214,82 +1214,82 @@
   <sheetData>
     <row r="2" spans="1:1" ht="18.75">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="18.75">
       <c r="A37" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/dubboi使用文档.xlsx
+++ b/dubboi使用文档.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>2.dubboi.properties文件中添加以下配置：</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -186,6 +186,14 @@
   </si>
   <si>
     <t>4.loadbalance，选填，服务均衡负载方式，该配置会覆盖dubboi.properties中的配置，可选值：random,roundrobin,leastactive,consistenthash，分别表示：随机，轮循，最少活跃调用，一致性哈希</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RpcService注解配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.restfulEnable，选填，配置单个服务是否启用restful服务，该配置会覆盖配置文件中的配置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -778,7 +786,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CAEACE"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1055,7 +1063,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:A46"/>
+  <dimension ref="A2:A49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1194,6 +1202,16 @@
     <row r="46" spans="1:1">
       <c r="A46" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="18.75">
+      <c r="A48" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/dubboi使用文档.xlsx
+++ b/dubboi使用文档.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>2.dubboi.properties文件中添加以下配置：</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -194,6 +194,14 @@
   </si>
   <si>
     <t>1.restfulEnable，选填，配置单个服务是否启用restful服务，该配置会覆盖配置文件中的配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.非spring方式的服务必须有一个默认的构造函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.如果启动了rpc协议，调用的时候提供方可能会出现匹配异常，是正常的，因为dubbo对服务的定位是基于服务接口的，会自动需找匹配的协议等，不影响使用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -786,7 +794,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1224,7 +1232,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:A40"/>
+  <dimension ref="A2:A42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1310,6 +1318,16 @@
         <v>40</v>
       </c>
     </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
